--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Fgf17-Fgfr4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Fgf17-Fgfr4.xlsx
@@ -534,7 +534,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.07496433333333333</v>
+        <v>0.07496433333333334</v>
       </c>
       <c r="H2">
         <v>0.224893</v>
@@ -546,34 +546,34 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.132884</v>
+        <v>0.08378199999999998</v>
       </c>
       <c r="N2">
-        <v>0.398652</v>
+        <v>0.251346</v>
       </c>
       <c r="O2">
-        <v>0.01195569974366677</v>
+        <v>0.007571394704126512</v>
       </c>
       <c r="P2">
-        <v>0.01195569974366677</v>
+        <v>0.007571394704126512</v>
       </c>
       <c r="Q2">
-        <v>0.009961560470666667</v>
+        <v>0.006280661775333333</v>
       </c>
       <c r="R2">
-        <v>0.089654044236</v>
+        <v>0.056525955978</v>
       </c>
       <c r="S2">
-        <v>0.01195569974366677</v>
+        <v>0.007571394704126512</v>
       </c>
       <c r="T2">
-        <v>0.01195569974366677</v>
+        <v>0.007571394704126512</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,7 +596,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.07496433333333333</v>
+        <v>0.07496433333333334</v>
       </c>
       <c r="H3">
         <v>0.224893</v>
@@ -614,28 +614,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.07352966666666666</v>
+        <v>0.07352966666666667</v>
       </c>
       <c r="N3">
         <v>0.220589</v>
       </c>
       <c r="O3">
-        <v>0.006615533976389703</v>
+        <v>0.006644889460697858</v>
       </c>
       <c r="P3">
-        <v>0.006615533976389702</v>
+        <v>0.006644889460697857</v>
       </c>
       <c r="Q3">
-        <v>0.005512102441888888</v>
+        <v>0.00551210244188889</v>
       </c>
       <c r="R3">
-        <v>0.04960892197699999</v>
+        <v>0.049608921977</v>
       </c>
       <c r="S3">
-        <v>0.006615533976389703</v>
+        <v>0.006644889460697858</v>
       </c>
       <c r="T3">
-        <v>0.006615533976389702</v>
+        <v>0.006644889460697857</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,7 +658,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.07496433333333333</v>
+        <v>0.07496433333333334</v>
       </c>
       <c r="H4">
         <v>0.224893</v>
@@ -682,22 +682,22 @@
         <v>32.724855</v>
       </c>
       <c r="O4">
-        <v>0.9814287662799436</v>
+        <v>0.9857837158351757</v>
       </c>
       <c r="P4">
-        <v>0.9814287662799435</v>
+        <v>0.9857837158351755</v>
       </c>
       <c r="Q4">
-        <v>0.8177323128349999</v>
+        <v>0.817732312835</v>
       </c>
       <c r="R4">
-        <v>7.359590815514999</v>
+        <v>7.359590815515</v>
       </c>
       <c r="S4">
-        <v>0.9814287662799436</v>
+        <v>0.9857837158351757</v>
       </c>
       <c r="T4">
-        <v>0.9814287662799435</v>
+        <v>0.9857837158351755</v>
       </c>
     </row>
   </sheetData>
